--- a/research/Book1.xlsx
+++ b/research/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnhuan/Code/Python/KanoodleSolverPython/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnhuan/Code/Python/KanoodleSolverPython/research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F50511-502E-6546-9B67-DC10DAF57448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070B88BE-AC8F-6447-9D4D-7F42A24E597F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{0CF05BEE-918A-5946-B28A-0619F06F1617}"/>
+    <workbookView xWindow="11640" yWindow="500" windowWidth="21960" windowHeight="18880" xr2:uid="{0CF05BEE-918A-5946-B28A-0619F06F1617}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="27">
   <si>
     <t>0,0</t>
   </si>
@@ -64,6 +64,60 @@
   <si>
     <t>2,1</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>3,2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +142,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3A00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA0A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -184,14 +280,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -201,24 +296,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFA0A2"/>
+      <color rgb="FFFF3A00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -527,256 +666,2913 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DB2078-FFCD-5148-BE33-61C2369F3872}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="B1:AP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30:Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+    <row r="1" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="U13" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO13" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP13" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD14" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF14" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ14" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM14" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN14" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE19" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM19" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO19" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP19" s="55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="X20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y20" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD20" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI20" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ20" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN20" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP20" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y21" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ21" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP21" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="P25" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="T25" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="U25" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="X25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE25" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF25" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ25" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM25" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO25" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP25" s="60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="V26" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y26" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z26" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC26" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD26" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI26" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ26" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM26" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN26" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO26" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP26" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z27" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ27" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP27" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
+    </row>
+    <row r="29" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
+    </row>
+    <row r="30" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M30" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:34" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH34" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF35" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH35" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH36" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:34" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF39" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH39" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF40" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH40" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH41" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:34" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF44" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="U45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF45" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH45" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH46" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP49" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="U50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="V50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="X50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM50" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO50" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP50" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O51" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="T51" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="U51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="V51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="X51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y51" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD51" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI51" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN51" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO51" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP51" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK52" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM52" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP52" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:42" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:42" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
